--- a/Hard2FindParts_Catalog-04-08-2025.xlsx
+++ b/Hard2FindParts_Catalog-04-08-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\First Parts List - 03-08-2025\hard2findparts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D5B11E-7820-44D0-B251-E41AA074E576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42F9B0E-4C1E-4973-9E0D-16297F8B7DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7380,9 +7380,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7393,12 +7390,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7416,9 +7407,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7431,29 +7419,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7481,6 +7457,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7513,15 +7513,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5569031</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>102671</xdr:rowOff>
+      <xdr:colOff>1239486</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7876061</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>166997</xdr:rowOff>
+      <xdr:colOff>3546516</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>201634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7550,7 +7550,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11942122" y="293171"/>
+          <a:off x="7906986" y="189262"/>
           <a:ext cx="2307030" cy="1640281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7558,6 +7558,125 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3896591</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5859D69A-869C-7D74-16B0-DB458A792E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10564091" y="588817"/>
+          <a:ext cx="10338954" cy="1212273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Conditions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1"/>
+            <a:t> : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>USED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1"/>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1" baseline="0"/>
+            <a:t> USED SURPLUS. UNIT IS FULLY OPERATIONAL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1" baseline="0"/>
+            <a:t> : NEVER USED SURPLUS, NO LONGER IN MANUFACTURER'S ORIGINAL PACKAGING</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7855,8 +7974,8 @@
   </sheetPr>
   <dimension ref="A2:J1709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1003" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7888,117 +8007,117 @@
         <v>793</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
-        <v>783</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>794</v>
+    <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>2201</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>795</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+        <v>794</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="41" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D6" s="42"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>798</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="41" t="s">
-        <v>786</v>
-      </c>
-      <c r="C8" s="45">
-        <v>5080</v>
+        <v>797</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
-        <v>787</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>1323</v>
+        <v>786</v>
+      </c>
+      <c r="C9" s="44">
+        <v>5080</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
+        <v>787</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
         <v>788</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
         <v>789</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="41" t="s">
         <v>790</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>2223</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
-        <v>2200</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>2201</v>
-      </c>
-    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="40" t="s">
@@ -8006,16 +8125,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+    </row>
+    <row r="18" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>1</v>
       </c>
@@ -8038,7 +8157,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>1</v>
       </c>
@@ -8061,7 +8180,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1</v>
       </c>
@@ -8084,7 +8203,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>2</v>
       </c>
@@ -8107,7 +8226,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>1</v>
       </c>
@@ -8130,7 +8249,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2</v>
       </c>
@@ -8153,7 +8272,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>1</v>
       </c>
@@ -8245,7 +8364,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="48" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>1</v>
       </c>
@@ -8314,7 +8433,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>7</v>
       </c>
@@ -8429,7 +8548,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>1</v>
       </c>
@@ -9235,23 +9354,23 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="H71" s="55"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
     </row>
     <row r="73" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
@@ -9276,7 +9395,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>1</v>
       </c>
@@ -9299,7 +9418,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>1</v>
       </c>
@@ -9529,7 +9648,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>1</v>
       </c>
@@ -9622,24 +9741,24 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
     </row>
     <row r="90" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="56" t="s">
+      <c r="A90" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="B90" s="61"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-    </row>
-    <row r="91" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+    </row>
+    <row r="91" spans="1:7" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>1</v>
       </c>
@@ -9662,7 +9781,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>2</v>
       </c>
@@ -9685,7 +9804,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>2</v>
       </c>
@@ -9708,7 +9827,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <v>4</v>
       </c>
@@ -9731,7 +9850,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>1</v>
       </c>
@@ -9754,7 +9873,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="51" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="48" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>2</v>
       </c>
@@ -9778,22 +9897,22 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
+      <c r="A97" s="49"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
     </row>
     <row r="98" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="64" t="s">
+      <c r="A98" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
     </row>
     <row r="99" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
@@ -9888,24 +10007,24 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="52"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="66"/>
+      <c r="A103" s="49"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="59"/>
     </row>
     <row r="104" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="64" t="s">
+      <c r="A104" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-    </row>
-    <row r="105" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="77"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+    </row>
+    <row r="105" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <v>1</v>
       </c>
@@ -9928,7 +10047,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>2</v>
       </c>
@@ -9951,7 +10070,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <v>1</v>
       </c>
@@ -9974,7 +10093,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
         <v>1</v>
       </c>
@@ -9997,7 +10116,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>2</v>
       </c>
@@ -10066,7 +10185,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" s="48" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>4</v>
       </c>
@@ -10273,7 +10392,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>1</v>
       </c>
@@ -10411,7 +10530,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>1</v>
       </c>
@@ -11171,24 +11290,24 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="58"/>
-      <c r="B160" s="59"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="60"/>
-      <c r="E160" s="59"/>
-      <c r="F160" s="59"/>
+      <c r="A160" s="54"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="55"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="55"/>
     </row>
     <row r="161" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="56" t="s">
+      <c r="A161" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="B161" s="57"/>
-      <c r="C161" s="57"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="57"/>
-      <c r="F161" s="57"/>
-    </row>
-    <row r="162" spans="1:7" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="72"/>
+      <c r="C161" s="72"/>
+      <c r="D161" s="72"/>
+      <c r="E161" s="72"/>
+      <c r="F161" s="72"/>
+    </row>
+    <row r="162" spans="1:7" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15">
         <v>1</v>
       </c>
@@ -11211,7 +11330,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>1</v>
       </c>
@@ -11234,7 +11353,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>1</v>
       </c>
@@ -11257,7 +11376,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" s="48" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>2</v>
       </c>
@@ -11280,7 +11399,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>1</v>
       </c>
@@ -11879,24 +11998,24 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="69"/>
-      <c r="B192" s="70"/>
-      <c r="C192" s="70"/>
-      <c r="D192" s="71"/>
-      <c r="E192" s="70"/>
-      <c r="F192" s="72"/>
+      <c r="A192" s="61"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="62"/>
+      <c r="D192" s="63"/>
+      <c r="E192" s="62"/>
+      <c r="F192" s="64"/>
     </row>
     <row r="193" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="64" t="s">
+      <c r="A193" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="B193" s="65"/>
-      <c r="C193" s="65"/>
-      <c r="D193" s="65"/>
-      <c r="E193" s="65"/>
-      <c r="F193" s="65"/>
-    </row>
-    <row r="194" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="77"/>
+      <c r="C193" s="77"/>
+      <c r="D193" s="77"/>
+      <c r="E193" s="77"/>
+      <c r="F193" s="77"/>
+    </row>
+    <row r="194" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>1</v>
       </c>
@@ -12057,7 +12176,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <v>1</v>
       </c>
@@ -12080,7 +12199,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>3</v>
       </c>
@@ -12633,24 +12752,24 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="58"/>
-      <c r="B226" s="59"/>
-      <c r="C226" s="59"/>
-      <c r="D226" s="60"/>
-      <c r="E226" s="59"/>
-      <c r="F226" s="59"/>
+      <c r="A226" s="54"/>
+      <c r="B226" s="55"/>
+      <c r="C226" s="55"/>
+      <c r="D226" s="56"/>
+      <c r="E226" s="55"/>
+      <c r="F226" s="55"/>
     </row>
     <row r="227" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="56" t="s">
+      <c r="A227" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B227" s="61"/>
-      <c r="C227" s="61"/>
-      <c r="D227" s="61"/>
-      <c r="E227" s="61"/>
-      <c r="F227" s="61"/>
-    </row>
-    <row r="228" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="71"/>
+      <c r="C227" s="71"/>
+      <c r="D227" s="71"/>
+      <c r="E227" s="71"/>
+      <c r="F227" s="71"/>
+    </row>
+    <row r="228" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
         <v>4</v>
       </c>
@@ -12673,7 +12792,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12">
         <v>1</v>
       </c>
@@ -12696,7 +12815,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12">
         <v>1</v>
       </c>
@@ -12719,7 +12838,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>1</v>
       </c>
@@ -12742,7 +12861,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>1</v>
       </c>
@@ -12765,7 +12884,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>1</v>
       </c>
@@ -12788,7 +12907,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>5</v>
       </c>
@@ -12811,7 +12930,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
         <v>1</v>
       </c>
@@ -12834,7 +12953,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>1</v>
       </c>
@@ -12857,7 +12976,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>1</v>
       </c>
@@ -12880,7 +12999,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>2</v>
       </c>
@@ -12903,7 +13022,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>2</v>
       </c>
@@ -12926,7 +13045,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>3</v>
       </c>
@@ -12949,7 +13068,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>1</v>
       </c>
@@ -12972,7 +13091,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12">
         <v>4</v>
       </c>
@@ -12995,7 +13114,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>1</v>
       </c>
@@ -13018,7 +13137,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="15">
         <v>30</v>
       </c>
@@ -13041,7 +13160,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="15">
         <v>3</v>
       </c>
@@ -13064,7 +13183,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>3</v>
       </c>
@@ -13087,7 +13206,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
         <v>1</v>
       </c>
@@ -13110,7 +13229,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>4</v>
       </c>
@@ -13133,7 +13252,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12">
         <v>2</v>
       </c>
@@ -13156,7 +13275,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12">
         <v>1</v>
       </c>
@@ -13179,7 +13298,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12">
         <v>2</v>
       </c>
@@ -13202,7 +13321,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12">
         <v>1</v>
       </c>
@@ -13225,7 +13344,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12">
         <v>2</v>
       </c>
@@ -13248,7 +13367,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>1</v>
       </c>
@@ -13271,7 +13390,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12">
         <v>1</v>
       </c>
@@ -13294,7 +13413,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12">
         <v>1</v>
       </c>
@@ -13317,7 +13436,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="15">
         <v>1</v>
       </c>
@@ -13340,7 +13459,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="15">
         <v>1</v>
       </c>
@@ -13363,7 +13482,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12">
         <v>1</v>
       </c>
@@ -13386,7 +13505,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12">
         <v>1</v>
       </c>
@@ -13409,7 +13528,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>1</v>
       </c>
@@ -13432,7 +13551,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <v>3</v>
       </c>
@@ -13455,7 +13574,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12">
         <v>1</v>
       </c>
@@ -13478,7 +13597,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="264" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12">
         <v>2</v>
       </c>
@@ -13501,7 +13620,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="265" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12">
         <v>1</v>
       </c>
@@ -13524,7 +13643,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12">
         <v>1</v>
       </c>
@@ -13547,7 +13666,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="267" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12">
         <v>10</v>
       </c>
@@ -13570,7 +13689,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12">
         <v>1</v>
       </c>
@@ -13594,16 +13713,16 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="56" t="s">
+      <c r="A270" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="B270" s="57"/>
-      <c r="C270" s="57"/>
-      <c r="D270" s="57"/>
-      <c r="E270" s="57"/>
-      <c r="F270" s="57"/>
-    </row>
-    <row r="271" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="72"/>
+      <c r="C270" s="72"/>
+      <c r="D270" s="72"/>
+      <c r="E270" s="72"/>
+      <c r="F270" s="72"/>
+    </row>
+    <row r="271" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12">
         <v>3</v>
       </c>
@@ -13626,7 +13745,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12">
         <v>1</v>
       </c>
@@ -13649,7 +13768,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="273" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>12</v>
       </c>
@@ -13672,7 +13791,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="274" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12">
         <v>2</v>
       </c>
@@ -14411,17 +14530,17 @@
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B306" s="34"/>
       <c r="C306" s="34"/>
-      <c r="D306" s="73"/>
+      <c r="D306" s="65"/>
     </row>
     <row r="307" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="56" t="s">
+      <c r="A307" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="B307" s="61"/>
-      <c r="C307" s="61"/>
-      <c r="D307" s="61"/>
-      <c r="E307" s="61"/>
-      <c r="F307" s="61"/>
+      <c r="B307" s="71"/>
+      <c r="C307" s="71"/>
+      <c r="D307" s="71"/>
+      <c r="E307" s="71"/>
+      <c r="F307" s="71"/>
     </row>
     <row r="308" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="15">
@@ -14792,20 +14911,20 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="58"/>
-      <c r="B324" s="59"/>
-      <c r="C324" s="59"/>
-      <c r="D324" s="60"/>
+      <c r="A324" s="54"/>
+      <c r="B324" s="55"/>
+      <c r="C324" s="55"/>
+      <c r="D324" s="56"/>
     </row>
     <row r="325" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="56" t="s">
+      <c r="A325" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="B325" s="61"/>
-      <c r="C325" s="61"/>
-      <c r="D325" s="61"/>
-      <c r="E325" s="61"/>
-      <c r="F325" s="61"/>
+      <c r="B325" s="71"/>
+      <c r="C325" s="71"/>
+      <c r="D325" s="71"/>
+      <c r="E325" s="71"/>
+      <c r="F325" s="71"/>
     </row>
     <row r="326" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="15">
@@ -14876,7 +14995,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="329" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="15">
         <v>1</v>
       </c>
@@ -14899,7 +15018,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="330" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="15">
         <v>2</v>
       </c>
@@ -14922,26 +15041,26 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="331" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="52"/>
-      <c r="B331" s="53"/>
-      <c r="C331" s="53"/>
-      <c r="D331" s="54"/>
-      <c r="E331" s="52"/>
-      <c r="F331" s="74"/>
-    </row>
-    <row r="332" spans="1:7" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="56" t="s">
+    <row r="331" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="49"/>
+      <c r="B331" s="50"/>
+      <c r="C331" s="50"/>
+      <c r="D331" s="51"/>
+      <c r="E331" s="49"/>
+      <c r="F331" s="66"/>
+    </row>
+    <row r="332" spans="1:7" s="48" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="70" t="s">
         <v>716</v>
       </c>
-      <c r="B332" s="61"/>
-      <c r="C332" s="61"/>
-      <c r="D332" s="61"/>
-      <c r="E332" s="61"/>
-      <c r="F332" s="61"/>
-    </row>
-    <row r="333" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="75">
+      <c r="B332" s="71"/>
+      <c r="C332" s="71"/>
+      <c r="D332" s="71"/>
+      <c r="E332" s="71"/>
+      <c r="F332" s="71"/>
+    </row>
+    <row r="333" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="67">
         <v>2</v>
       </c>
       <c r="B333" s="9" t="s">
@@ -14956,15 +15075,15 @@
       <c r="E333" s="9" t="s">
         <v>1324</v>
       </c>
-      <c r="F333" s="76">
+      <c r="F333" s="68">
         <v>890</v>
       </c>
-      <c r="G333" s="76" t="s">
+      <c r="G333" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="334" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="75">
+    <row r="334" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="67">
         <v>1</v>
       </c>
       <c r="B334" s="9" t="s">
@@ -14982,7 +15101,7 @@
       <c r="F334" s="14">
         <v>890</v>
       </c>
-      <c r="G334" s="76" t="s">
+      <c r="G334" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
@@ -15005,27 +15124,27 @@
       <c r="F335" s="19">
         <v>392</v>
       </c>
-      <c r="G335" s="76" t="s">
+      <c r="G335" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="336" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="52"/>
-      <c r="B336" s="53"/>
-      <c r="C336" s="53"/>
-      <c r="D336" s="54"/>
-      <c r="E336" s="52"/>
-      <c r="F336" s="74"/>
+    <row r="336" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="49"/>
+      <c r="B336" s="50"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="51"/>
+      <c r="E336" s="49"/>
+      <c r="F336" s="66"/>
     </row>
     <row r="337" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="56" t="s">
+      <c r="A337" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="B337" s="61"/>
-      <c r="C337" s="61"/>
-      <c r="D337" s="61"/>
-      <c r="E337" s="61"/>
-      <c r="F337" s="61"/>
+      <c r="B337" s="71"/>
+      <c r="C337" s="71"/>
+      <c r="D337" s="71"/>
+      <c r="E337" s="71"/>
+      <c r="F337" s="71"/>
     </row>
     <row r="338" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="12">
@@ -15046,7 +15165,7 @@
       <c r="F338" s="20">
         <v>5276</v>
       </c>
-      <c r="G338" s="76" t="s">
+      <c r="G338" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
@@ -15069,7 +15188,7 @@
       <c r="F339" s="20">
         <v>1104</v>
       </c>
-      <c r="G339" s="76" t="s">
+      <c r="G339" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
@@ -15092,7 +15211,7 @@
       <c r="F340" s="20">
         <v>1504</v>
       </c>
-      <c r="G340" s="76" t="s">
+      <c r="G340" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
@@ -15115,12 +15234,12 @@
       <c r="F341" s="20">
         <v>2618</v>
       </c>
-      <c r="G341" s="76" t="s">
+      <c r="G341" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="75">
+      <c r="A342" s="67">
         <v>1</v>
       </c>
       <c r="B342" s="9" t="s">
@@ -15135,15 +15254,15 @@
       <c r="E342" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="F342" s="76">
+      <c r="F342" s="68">
         <v>1878</v>
       </c>
-      <c r="G342" s="76" t="s">
+      <c r="G342" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="75">
+      <c r="A343" s="67">
         <v>1</v>
       </c>
       <c r="B343" s="9" t="s">
@@ -15158,15 +15277,15 @@
       <c r="E343" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="F343" s="76">
+      <c r="F343" s="68">
         <v>1096</v>
       </c>
-      <c r="G343" s="76" t="s">
+      <c r="G343" s="68" t="s">
         <v>2211</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="75">
+      <c r="A344" s="67">
         <v>1</v>
       </c>
       <c r="B344" s="9" t="s">
@@ -15181,15 +15300,15 @@
       <c r="E344" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="F344" s="76">
+      <c r="F344" s="68">
         <v>369</v>
       </c>
-      <c r="G344" s="76" t="s">
+      <c r="G344" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="75">
+      <c r="A345" s="67">
         <v>2</v>
       </c>
       <c r="B345" s="9" t="s">
@@ -15204,15 +15323,15 @@
       <c r="E345" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="F345" s="76">
+      <c r="F345" s="68">
         <v>204</v>
       </c>
-      <c r="G345" s="76" t="s">
+      <c r="G345" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="75">
+      <c r="A346" s="67">
         <v>2</v>
       </c>
       <c r="B346" s="9" t="s">
@@ -15227,15 +15346,15 @@
       <c r="E346" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="F346" s="76">
+      <c r="F346" s="68">
         <v>585</v>
       </c>
-      <c r="G346" s="76" t="s">
+      <c r="G346" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="75">
+      <c r="A347" s="67">
         <v>2</v>
       </c>
       <c r="B347" s="9" t="s">
@@ -15250,15 +15369,15 @@
       <c r="E347" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="F347" s="76">
+      <c r="F347" s="68">
         <v>1276</v>
       </c>
-      <c r="G347" s="76" t="s">
+      <c r="G347" s="68" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="75">
+      <c r="A348" s="67">
         <v>2</v>
       </c>
       <c r="B348" s="9" t="s">
@@ -15273,15 +15392,15 @@
       <c r="E348" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="F348" s="76">
+      <c r="F348" s="68">
         <v>238</v>
       </c>
-      <c r="G348" s="76" t="s">
+      <c r="G348" s="68" t="s">
         <v>2207</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="75">
+      <c r="A349" s="67">
         <v>2</v>
       </c>
       <c r="B349" s="9" t="s">
@@ -15296,23 +15415,23 @@
       <c r="E349" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="F349" s="76">
+      <c r="F349" s="68">
         <v>300</v>
       </c>
-      <c r="G349" s="76" t="s">
+      <c r="G349" s="68" t="s">
         <v>2221</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="351" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A351" s="56" t="s">
+      <c r="A351" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="B351" s="61"/>
-      <c r="C351" s="61"/>
-      <c r="D351" s="61"/>
-      <c r="E351" s="61"/>
-      <c r="F351" s="61"/>
+      <c r="B351" s="71"/>
+      <c r="C351" s="71"/>
+      <c r="D351" s="71"/>
+      <c r="E351" s="71"/>
+      <c r="F351" s="71"/>
     </row>
     <row r="352" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="12">
@@ -15659,7 +15778,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="367" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="15">
         <v>2</v>
       </c>
@@ -15705,7 +15824,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="369" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="15">
         <v>1</v>
       </c>
@@ -16119,7 +16238,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="387" spans="1:7" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="15">
         <v>1</v>
       </c>
@@ -16142,7 +16261,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="388" spans="1:7" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="15">
         <v>1</v>
       </c>
@@ -16165,7 +16284,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="389" spans="1:7" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="15">
         <v>1</v>
       </c>
@@ -16188,7 +16307,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="390" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="15">
         <v>1</v>
       </c>
@@ -16740,7 +16859,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="15">
         <v>1</v>
       </c>
@@ -16970,7 +17089,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="424" spans="1:7" s="51" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="15">
         <v>1</v>
       </c>
@@ -16993,7 +17112,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="425" spans="1:7" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="15">
         <v>2</v>
       </c>
@@ -17200,7 +17319,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="434" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="15">
         <v>2</v>
       </c>
@@ -17338,7 +17457,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="440" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="15">
         <v>1</v>
       </c>
@@ -17361,7 +17480,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="441" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="15">
         <v>1</v>
       </c>
@@ -17476,7 +17595,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="446" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="15">
         <v>1</v>
       </c>
@@ -17545,7 +17664,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="449" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="15">
         <v>1</v>
       </c>
@@ -17989,14 +18108,14 @@
       <c r="F468" s="35"/>
     </row>
     <row r="469" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="56" t="s">
+      <c r="A469" s="70" t="s">
         <v>662</v>
       </c>
-      <c r="B469" s="57"/>
-      <c r="C469" s="57"/>
-      <c r="D469" s="57"/>
-      <c r="E469" s="57"/>
-      <c r="F469" s="57"/>
+      <c r="B469" s="72"/>
+      <c r="C469" s="72"/>
+      <c r="D469" s="72"/>
+      <c r="E469" s="72"/>
+      <c r="F469" s="72"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="12">
@@ -18067,7 +18186,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="473" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="15">
         <v>1</v>
       </c>
@@ -18159,7 +18278,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="477" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="15">
         <v>1</v>
       </c>
@@ -18189,14 +18308,14 @@
       <c r="F478" s="35"/>
     </row>
     <row r="479" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="56" t="s">
+      <c r="A479" s="70" t="s">
         <v>800</v>
       </c>
-      <c r="B479" s="57"/>
-      <c r="C479" s="57"/>
-      <c r="D479" s="57"/>
-      <c r="E479" s="57"/>
-      <c r="F479" s="57"/>
+      <c r="B479" s="72"/>
+      <c r="C479" s="72"/>
+      <c r="D479" s="72"/>
+      <c r="E479" s="72"/>
+      <c r="F479" s="72"/>
     </row>
     <row r="480" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="12">
@@ -18267,7 +18386,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="483" spans="1:7" s="51" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" s="48" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="15">
         <v>1</v>
       </c>
@@ -18428,7 +18547,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="490" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="15">
         <v>1</v>
       </c>
@@ -19095,7 +19214,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="519" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="15">
         <v>1</v>
       </c>
@@ -19348,7 +19467,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="530" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="15">
         <v>1</v>
       </c>
@@ -19417,7 +19536,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="533" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="15">
         <v>1</v>
       </c>
@@ -19555,7 +19674,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="539" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="15">
         <v>1</v>
       </c>
@@ -19693,7 +19812,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="545" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="15">
         <v>1</v>
       </c>
@@ -19785,7 +19904,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="549" spans="1:7" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" s="48" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="15">
         <v>1</v>
       </c>
@@ -19970,23 +20089,23 @@
       </c>
     </row>
     <row r="557" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="58"/>
-      <c r="B557" s="59"/>
-      <c r="C557" s="59"/>
-      <c r="D557" s="60"/>
-      <c r="E557" s="59"/>
-      <c r="F557" s="59"/>
+      <c r="A557" s="54"/>
+      <c r="B557" s="55"/>
+      <c r="C557" s="55"/>
+      <c r="D557" s="56"/>
+      <c r="E557" s="55"/>
+      <c r="F557" s="55"/>
     </row>
     <row r="558" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="56" t="s">
+      <c r="A558" s="70" t="s">
         <v>913</v>
       </c>
-      <c r="B558" s="57"/>
-      <c r="C558" s="57"/>
-      <c r="D558" s="57"/>
-      <c r="E558" s="57"/>
-      <c r="F558" s="57"/>
-      <c r="G558" s="59"/>
+      <c r="B558" s="72"/>
+      <c r="C558" s="72"/>
+      <c r="D558" s="72"/>
+      <c r="E558" s="72"/>
+      <c r="F558" s="72"/>
+      <c r="G558" s="55"/>
     </row>
     <row r="559" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="12">
@@ -20126,7 +20245,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="565" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="15">
         <v>1</v>
       </c>
@@ -20501,14 +20620,14 @@
       <c r="F581" s="35"/>
     </row>
     <row r="582" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="56" t="s">
+      <c r="A582" s="70" t="s">
         <v>948</v>
       </c>
-      <c r="B582" s="57"/>
-      <c r="C582" s="57"/>
-      <c r="D582" s="57"/>
-      <c r="E582" s="57"/>
-      <c r="F582" s="57"/>
+      <c r="B582" s="72"/>
+      <c r="C582" s="72"/>
+      <c r="D582" s="72"/>
+      <c r="E582" s="72"/>
+      <c r="F582" s="72"/>
     </row>
     <row r="583" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="12">
@@ -20793,14 +20912,14 @@
       <c r="F595" s="35"/>
     </row>
     <row r="596" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="56" t="s">
+      <c r="A596" s="70" t="s">
         <v>962</v>
       </c>
-      <c r="B596" s="57"/>
-      <c r="C596" s="57"/>
-      <c r="D596" s="57"/>
-      <c r="E596" s="57"/>
-      <c r="F596" s="57"/>
+      <c r="B596" s="72"/>
+      <c r="C596" s="72"/>
+      <c r="D596" s="72"/>
+      <c r="E596" s="72"/>
+      <c r="F596" s="72"/>
     </row>
     <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="15">
@@ -21108,14 +21227,14 @@
       <c r="F610" s="35"/>
     </row>
     <row r="611" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="56" t="s">
+      <c r="A611" s="70" t="s">
         <v>984</v>
       </c>
-      <c r="B611" s="57"/>
-      <c r="C611" s="57"/>
-      <c r="D611" s="57"/>
-      <c r="E611" s="57"/>
-      <c r="F611" s="57"/>
+      <c r="B611" s="72"/>
+      <c r="C611" s="72"/>
+      <c r="D611" s="72"/>
+      <c r="E611" s="72"/>
+      <c r="F611" s="72"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="12">
@@ -21163,7 +21282,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="614" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="23">
         <v>1</v>
       </c>
@@ -21209,7 +21328,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="616" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A616" s="23">
         <v>75</v>
       </c>
@@ -21232,7 +21351,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="617" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="23">
         <v>11</v>
       </c>
@@ -21255,7 +21374,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="618" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" s="23">
         <v>4</v>
       </c>
@@ -21278,7 +21397,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="619" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="23">
         <v>9</v>
       </c>
@@ -21301,7 +21420,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="620" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="23">
         <v>6</v>
       </c>
@@ -21577,7 +21696,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="632" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A632" s="23">
         <v>7</v>
       </c>
@@ -21600,7 +21719,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="633" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A633" s="23">
         <v>4</v>
       </c>
@@ -21623,7 +21742,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="634" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A634" s="23">
         <v>2</v>
       </c>
@@ -21646,7 +21765,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="635" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A635" s="23">
         <v>2</v>
       </c>
@@ -21669,7 +21788,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="636" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A636" s="12">
         <v>25</v>
       </c>
@@ -21692,7 +21811,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="637" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A637" s="12">
         <v>5</v>
       </c>
@@ -21715,7 +21834,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="638" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="12">
         <v>1</v>
       </c>
@@ -21738,7 +21857,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="639" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="12">
         <v>3</v>
       </c>
@@ -21761,7 +21880,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="640" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="12">
         <v>56</v>
       </c>
@@ -21784,7 +21903,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="641" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="12">
         <v>3</v>
       </c>
@@ -21807,7 +21926,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="642" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="12">
         <v>4</v>
       </c>
@@ -21830,7 +21949,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="643" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="12">
         <v>30</v>
       </c>
@@ -21853,7 +21972,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="644" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A644" s="12">
         <v>27</v>
       </c>
@@ -21876,7 +21995,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="645" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="12">
         <v>5</v>
       </c>
@@ -21922,7 +22041,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="647" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A647" s="12">
         <v>72</v>
       </c>
@@ -21945,7 +22064,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="648" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="12">
         <v>5</v>
       </c>
@@ -21991,7 +22110,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="650" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A650" s="23">
         <v>13</v>
       </c>
@@ -22014,7 +22133,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="651" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="12">
         <v>49</v>
       </c>
@@ -22037,7 +22156,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="652" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A652" s="12">
         <v>20</v>
       </c>
@@ -22060,7 +22179,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="653" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="12">
         <v>5</v>
       </c>
@@ -22083,7 +22202,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="654" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="12">
         <v>2</v>
       </c>
@@ -22106,7 +22225,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="655" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="12">
         <v>7</v>
       </c>
@@ -22129,7 +22248,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="656" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A656" s="12">
         <v>7</v>
       </c>
@@ -22152,7 +22271,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="657" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="23">
         <v>6</v>
       </c>
@@ -22175,7 +22294,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="658" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A658" s="23">
         <v>4</v>
       </c>
@@ -22198,7 +22317,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="659" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="23">
         <v>8</v>
       </c>
@@ -22221,7 +22340,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="660" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A660" s="23">
         <v>2</v>
       </c>
@@ -22267,7 +22386,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="662" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A662" s="23">
         <v>1</v>
       </c>
@@ -22290,7 +22409,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="663" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A663" s="23">
         <v>5</v>
       </c>
@@ -22313,7 +22432,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="664" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A664" s="23">
         <v>2</v>
       </c>
@@ -22336,7 +22455,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="665" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A665" s="23">
         <v>2</v>
       </c>
@@ -22359,7 +22478,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="666" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A666" s="23">
         <v>3</v>
       </c>
@@ -22635,7 +22754,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="678" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A678" s="23">
         <v>27</v>
       </c>
@@ -22658,7 +22777,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="679" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A679" s="12">
         <v>7</v>
       </c>
@@ -22681,7 +22800,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="680" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="23">
         <v>2</v>
       </c>
@@ -22704,7 +22823,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="681" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="23">
         <v>1</v>
       </c>
@@ -22727,7 +22846,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="682" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A682" s="23">
         <v>1</v>
       </c>
@@ -22750,7 +22869,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="683" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="23">
         <v>4</v>
       </c>
@@ -22773,7 +22892,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="684" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A684" s="23">
         <v>2</v>
       </c>
@@ -22796,7 +22915,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="685" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A685" s="23">
         <v>3</v>
       </c>
@@ -22819,7 +22938,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="686" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A686" s="23">
         <v>3</v>
       </c>
@@ -22865,7 +22984,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="688" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A688" s="23">
         <v>2</v>
       </c>
@@ -22888,7 +23007,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="689" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="23">
         <v>2</v>
       </c>
@@ -22911,7 +23030,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="690" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A690" s="23">
         <v>2</v>
       </c>
@@ -22934,7 +23053,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="691" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A691" s="12">
         <v>5</v>
       </c>
@@ -22957,7 +23076,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="692" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A692" s="23">
         <v>5</v>
       </c>
@@ -22980,7 +23099,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="693" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A693" s="23">
         <v>3</v>
       </c>
@@ -23026,7 +23145,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="695" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A695" s="12">
         <v>1</v>
       </c>
@@ -23049,7 +23168,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="696" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="12">
         <v>1</v>
       </c>
@@ -23095,7 +23214,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="698" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="12">
         <v>26</v>
       </c>
@@ -23118,7 +23237,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="699" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A699" s="12">
         <v>15</v>
       </c>
@@ -23141,7 +23260,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="700" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A700" s="12">
         <v>3</v>
       </c>
@@ -23164,7 +23283,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="701" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A701" s="12">
         <v>40</v>
       </c>
@@ -23187,7 +23306,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="702" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A702" s="12">
         <v>1</v>
       </c>
@@ -23210,7 +23329,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="703" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A703" s="23">
         <v>12</v>
       </c>
@@ -23233,7 +23352,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="704" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A704" s="12">
         <v>28</v>
       </c>
@@ -23256,7 +23375,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="705" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A705" s="12">
         <v>18</v>
       </c>
@@ -23279,7 +23398,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="706" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A706" s="12">
         <v>19</v>
       </c>
@@ -23302,7 +23421,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="707" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A707" s="12">
         <v>1</v>
       </c>
@@ -23332,14 +23451,14 @@
       <c r="F708" s="35"/>
     </row>
     <row r="709" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="56" t="s">
+      <c r="A709" s="70" t="s">
         <v>1084</v>
       </c>
-      <c r="B709" s="57"/>
-      <c r="C709" s="57"/>
-      <c r="D709" s="57"/>
-      <c r="E709" s="57"/>
-      <c r="F709" s="57"/>
+      <c r="B709" s="72"/>
+      <c r="C709" s="72"/>
+      <c r="D709" s="72"/>
+      <c r="E709" s="72"/>
+      <c r="F709" s="72"/>
     </row>
     <row r="710" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="15">
@@ -23456,7 +23575,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="715" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="15">
         <v>1</v>
       </c>
@@ -23640,7 +23759,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="723" spans="1:7" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" s="48" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="15">
         <v>2</v>
       </c>
@@ -23663,7 +23782,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="724" spans="1:7" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" s="48" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="15">
         <v>1</v>
       </c>
@@ -23686,7 +23805,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="725" spans="1:7" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" s="48" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="15">
         <v>1</v>
       </c>
@@ -23778,7 +23897,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="729" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="15">
         <v>1</v>
       </c>
@@ -23847,7 +23966,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="732" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="15">
         <v>26</v>
       </c>
@@ -23870,7 +23989,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="733" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="15">
         <v>33</v>
       </c>
@@ -23893,7 +24012,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="734" spans="1:7" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="15">
         <v>25</v>
       </c>
@@ -23916,7 +24035,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="735" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="15">
         <v>6</v>
       </c>
@@ -23939,7 +24058,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="736" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="15">
         <v>3</v>
       </c>
@@ -23962,7 +24081,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="737" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="15">
         <v>3</v>
       </c>
@@ -23985,7 +24104,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="738" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="15">
         <v>8</v>
       </c>
@@ -24008,7 +24127,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="739" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="15">
         <v>6</v>
       </c>
@@ -24238,7 +24357,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="749" spans="1:7" s="51" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="15">
         <v>3</v>
       </c>
@@ -24261,7 +24380,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="750" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="15">
         <v>1</v>
       </c>
@@ -24284,7 +24403,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="751" spans="1:7" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="15">
         <v>1</v>
       </c>
@@ -24353,7 +24472,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="754" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="15">
         <v>25</v>
       </c>
@@ -24399,7 +24518,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="756" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="15">
         <v>1</v>
       </c>
@@ -24422,7 +24541,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="757" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="15">
         <v>1</v>
       </c>
@@ -24445,7 +24564,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="758" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="15">
         <v>4</v>
       </c>
@@ -24468,7 +24587,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="759" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="15">
         <v>3</v>
       </c>
@@ -24491,7 +24610,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="760" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="15">
         <v>1</v>
       </c>
@@ -24514,7 +24633,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="761" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="15">
         <v>1</v>
       </c>
@@ -24537,7 +24656,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="762" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="15">
         <v>2</v>
       </c>
@@ -24560,7 +24679,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="763" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="15">
         <v>1</v>
       </c>
@@ -24583,7 +24702,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="764" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="15">
         <v>2</v>
       </c>
@@ -24606,7 +24725,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="765" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="15">
         <v>2</v>
       </c>
@@ -24629,7 +24748,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="766" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="15">
         <v>2</v>
       </c>
@@ -24652,7 +24771,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="767" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="15">
         <v>6</v>
       </c>
@@ -24675,7 +24794,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="768" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="15">
         <v>5</v>
       </c>
@@ -24698,7 +24817,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="769" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="15">
         <v>4</v>
       </c>
@@ -24721,7 +24840,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="770" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="15">
         <v>3</v>
       </c>
@@ -24744,7 +24863,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="771" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="15">
         <v>1</v>
       </c>
@@ -24767,7 +24886,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="772" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="15">
         <v>4</v>
       </c>
@@ -24790,7 +24909,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="773" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="15">
         <v>2</v>
       </c>
@@ -24813,7 +24932,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="774" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="15">
         <v>2</v>
       </c>
@@ -24836,7 +24955,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="775" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="15">
         <v>4</v>
       </c>
@@ -24859,7 +24978,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="776" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="15">
         <v>1</v>
       </c>
@@ -24882,7 +25001,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="777" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="15">
         <v>3</v>
       </c>
@@ -24905,7 +25024,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="778" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="15">
         <v>4</v>
       </c>
@@ -24928,7 +25047,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="779" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="15">
         <v>6</v>
       </c>
@@ -24951,7 +25070,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="780" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="15">
         <v>7</v>
       </c>
@@ -24974,7 +25093,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="781" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="15">
         <v>3</v>
       </c>
@@ -24997,7 +25116,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="782" spans="1:7" s="51" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="15">
         <v>2</v>
       </c>
@@ -25020,7 +25139,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="783" spans="1:7" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="15">
         <v>1</v>
       </c>
@@ -25043,7 +25162,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="784" spans="1:7" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="15">
         <v>1</v>
       </c>
@@ -25066,7 +25185,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="785" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="15">
         <v>3</v>
       </c>
@@ -25089,7 +25208,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="786" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="15">
         <v>1</v>
       </c>
@@ -25112,7 +25231,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="787" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="15">
         <v>1</v>
       </c>
@@ -25135,7 +25254,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="788" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="15">
         <v>1</v>
       </c>
@@ -25204,7 +25323,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="791" spans="1:7" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" s="48" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="15">
         <v>2</v>
       </c>
@@ -25227,7 +25346,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="792" spans="1:7" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" s="48" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="15">
         <v>5</v>
       </c>
@@ -25250,7 +25369,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="793" spans="1:7" s="51" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="15">
         <v>1</v>
       </c>
@@ -25273,7 +25392,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="794" spans="1:7" s="51" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" s="48" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="15">
         <v>1</v>
       </c>
@@ -25296,7 +25415,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="795" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="15">
         <v>1</v>
       </c>
@@ -25319,7 +25438,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="796" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="15">
         <v>1</v>
       </c>
@@ -25342,7 +25461,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="797" spans="1:7" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="15">
         <v>1</v>
       </c>
@@ -25365,7 +25484,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="798" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="15">
         <v>1</v>
       </c>
@@ -25388,7 +25507,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="799" spans="1:7" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="15">
         <v>2</v>
       </c>
@@ -25411,7 +25530,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="800" spans="1:7" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" s="48" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="15">
         <v>2</v>
       </c>
@@ -25434,7 +25553,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="801" spans="1:7" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="15">
         <v>2</v>
       </c>
@@ -25457,7 +25576,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="802" spans="1:7" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="15">
         <v>1</v>
       </c>
@@ -25526,7 +25645,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="805" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="15">
         <v>7</v>
       </c>
@@ -25549,7 +25668,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="806" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="15">
         <v>6</v>
       </c>
@@ -25572,7 +25691,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="807" spans="1:7" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="15">
         <v>3</v>
       </c>
@@ -25595,7 +25714,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="808" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="15">
         <v>1</v>
       </c>
@@ -25618,7 +25737,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="809" spans="1:7" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="15">
         <v>1</v>
       </c>
@@ -25641,7 +25760,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="810" spans="1:7" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="15">
         <v>1</v>
       </c>
@@ -25878,16 +25997,16 @@
       <c r="F820" s="35"/>
     </row>
     <row r="821" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="56" t="s">
+      <c r="A821" s="70" t="s">
         <v>1213</v>
       </c>
-      <c r="B821" s="57"/>
-      <c r="C821" s="57"/>
-      <c r="D821" s="57"/>
-      <c r="E821" s="57"/>
-      <c r="F821" s="57"/>
-    </row>
-    <row r="822" spans="1:7" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B821" s="72"/>
+      <c r="C821" s="72"/>
+      <c r="D821" s="72"/>
+      <c r="E821" s="72"/>
+      <c r="F821" s="72"/>
+    </row>
+    <row r="822" spans="1:7" s="48" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="23">
         <v>1</v>
       </c>
@@ -25910,7 +26029,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="823" spans="1:7" s="51" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" s="48" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="23">
         <v>2</v>
       </c>
@@ -25933,7 +26052,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="824" spans="1:7" s="51" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" s="48" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="23">
         <v>1</v>
       </c>
@@ -25956,7 +26075,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="825" spans="1:7" s="51" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" s="48" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="23">
         <v>2</v>
       </c>
@@ -25979,7 +26098,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="826" spans="1:7" s="51" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" s="48" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="23">
         <v>1</v>
       </c>
@@ -26002,7 +26121,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="827" spans="1:7" s="51" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" s="48" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="23">
         <v>1</v>
       </c>
@@ -26025,7 +26144,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="828" spans="1:7" s="51" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" s="48" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="23">
         <v>1</v>
       </c>
@@ -26048,7 +26167,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="829" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="23">
         <v>1</v>
       </c>
@@ -26071,7 +26190,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="830" spans="1:7" s="51" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="23">
         <v>1</v>
       </c>
@@ -26094,7 +26213,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="831" spans="1:7" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" s="48" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="23">
         <v>2</v>
       </c>
@@ -26117,7 +26236,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="832" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A832" s="23">
         <v>7</v>
       </c>
@@ -26140,7 +26259,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="833" spans="1:7" s="51" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" s="48" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="23">
         <v>3</v>
       </c>
@@ -26163,7 +26282,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="834" spans="1:7" s="51" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" s="48" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="23">
         <v>3</v>
       </c>
@@ -26186,7 +26305,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="835" spans="1:7" s="51" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" s="48" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="23">
         <v>1</v>
       </c>
@@ -26209,7 +26328,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="836" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" s="48" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="23">
         <v>3</v>
       </c>
@@ -26232,7 +26351,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="837" spans="1:7" s="51" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" s="48" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="23">
         <v>1</v>
       </c>
@@ -26255,7 +26374,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="838" spans="1:7" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" s="48" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="23">
         <v>4</v>
       </c>
@@ -26278,7 +26397,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="839" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A839" s="23">
         <v>1</v>
       </c>
@@ -26301,7 +26420,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="840" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A840" s="23">
         <v>5</v>
       </c>
@@ -26324,7 +26443,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="841" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A841" s="23">
         <v>2</v>
       </c>
@@ -26347,7 +26466,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="842" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A842" s="23">
         <v>1</v>
       </c>
@@ -26370,7 +26489,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="843" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A843" s="23">
         <v>4</v>
       </c>
@@ -26393,7 +26512,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="844" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A844" s="23">
         <v>1</v>
       </c>
@@ -26416,7 +26535,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="845" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A845" s="23">
         <v>2</v>
       </c>
@@ -26439,7 +26558,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="846" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A846" s="23">
         <v>1</v>
       </c>
@@ -26462,7 +26581,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="847" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A847" s="23">
         <v>2</v>
       </c>
@@ -26485,7 +26604,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="848" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A848" s="23">
         <v>1</v>
       </c>
@@ -26508,7 +26627,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="849" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A849" s="23">
         <v>2</v>
       </c>
@@ -26531,7 +26650,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="850" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A850" s="23">
         <v>1</v>
       </c>
@@ -26554,7 +26673,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="851" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A851" s="23">
         <v>2</v>
       </c>
@@ -26577,7 +26696,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="852" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A852" s="23">
         <v>1</v>
       </c>
@@ -26600,7 +26719,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="853" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="23">
         <v>1</v>
       </c>
@@ -26623,7 +26742,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="854" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A854" s="23">
         <v>1</v>
       </c>
@@ -26646,7 +26765,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="855" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A855" s="23">
         <v>2</v>
       </c>
@@ -26669,7 +26788,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="856" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A856" s="23">
         <v>2</v>
       </c>
@@ -26692,7 +26811,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="857" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A857" s="23">
         <v>1</v>
       </c>
@@ -26715,7 +26834,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="858" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A858" s="23">
         <v>2</v>
       </c>
@@ -26738,7 +26857,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="859" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A859" s="23">
         <v>1</v>
       </c>
@@ -26761,7 +26880,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="860" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A860" s="23">
         <v>1</v>
       </c>
@@ -26784,7 +26903,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="861" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A861" s="23">
         <v>2</v>
       </c>
@@ -26807,7 +26926,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="862" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A862" s="23">
         <v>1</v>
       </c>
@@ -26830,7 +26949,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="863" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A863" s="23">
         <v>1</v>
       </c>
@@ -26853,7 +26972,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="864" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A864" s="23">
         <v>1</v>
       </c>
@@ -26876,7 +26995,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="865" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A865" s="23">
         <v>1</v>
       </c>
@@ -26899,7 +27018,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="866" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A866" s="23">
         <v>1</v>
       </c>
@@ -26922,7 +27041,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="867" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A867" s="23">
         <v>1</v>
       </c>
@@ -26945,7 +27064,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="868" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A868" s="23">
         <v>1</v>
       </c>
@@ -26968,7 +27087,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="869" spans="1:7" s="51" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" s="48" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="23">
         <v>4</v>
       </c>
@@ -26991,7 +27110,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="870" spans="1:7" s="51" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="23">
         <v>1</v>
       </c>
@@ -27014,7 +27133,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="871" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="23">
         <v>3</v>
       </c>
@@ -27037,7 +27156,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="872" spans="1:7" s="51" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="23">
         <v>3</v>
       </c>
@@ -27060,7 +27179,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="873" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A873" s="23">
         <v>1</v>
       </c>
@@ -27083,7 +27202,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="874" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A874" s="23">
         <v>1</v>
       </c>
@@ -27106,7 +27225,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="875" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A875" s="23">
         <v>1</v>
       </c>
@@ -27129,7 +27248,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="876" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A876" s="23">
         <v>1</v>
       </c>
@@ -27152,7 +27271,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="877" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A877" s="23">
         <v>2</v>
       </c>
@@ -27175,7 +27294,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="878" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A878" s="23">
         <v>4</v>
       </c>
@@ -27198,7 +27317,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="879" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A879" s="23">
         <v>2</v>
       </c>
@@ -27221,7 +27340,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="880" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A880" s="23">
         <v>1</v>
       </c>
@@ -27244,7 +27363,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="881" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A881" s="23">
         <v>3</v>
       </c>
@@ -27267,7 +27386,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="882" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A882" s="23">
         <v>1</v>
       </c>
@@ -27290,7 +27409,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="883" spans="1:7" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="23">
         <v>3</v>
       </c>
@@ -27313,7 +27432,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="884" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A884" s="23">
         <v>2</v>
       </c>
@@ -27336,7 +27455,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="885" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A885" s="23">
         <v>1</v>
       </c>
@@ -27359,7 +27478,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="886" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A886" s="23">
         <v>2</v>
       </c>
@@ -27382,7 +27501,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="887" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A887" s="23">
         <v>2</v>
       </c>
@@ -27405,7 +27524,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="888" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A888" s="23">
         <v>4</v>
       </c>
@@ -27428,7 +27547,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="889" spans="1:7" s="51" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="23">
         <v>1</v>
       </c>
@@ -27451,7 +27570,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="890" spans="1:7" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" s="48" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="23">
         <v>2</v>
       </c>
@@ -27474,7 +27593,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="891" spans="1:7" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="23">
         <v>6</v>
       </c>
@@ -27497,7 +27616,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="892" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="23">
         <v>3</v>
       </c>
@@ -27520,7 +27639,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="893" spans="1:7" s="51" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="23">
         <v>3</v>
       </c>
@@ -27543,7 +27662,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="894" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A894" s="23">
         <v>1</v>
       </c>
@@ -27566,7 +27685,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="895" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A895" s="23">
         <v>2</v>
       </c>
@@ -27589,7 +27708,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="896" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A896" s="23">
         <v>1</v>
       </c>
@@ -27612,7 +27731,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="897" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A897" s="23">
         <v>1</v>
       </c>
@@ -27635,7 +27754,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="898" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A898" s="23">
         <v>2</v>
       </c>
@@ -27658,7 +27777,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="899" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="15">
         <v>4</v>
       </c>
@@ -27681,7 +27800,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="900" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="15">
         <v>1</v>
       </c>
@@ -27704,7 +27823,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="901" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="15">
         <v>2</v>
       </c>
@@ -27727,7 +27846,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="902" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="15">
         <v>1</v>
       </c>
@@ -27750,7 +27869,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="903" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="15">
         <v>1</v>
       </c>
@@ -27773,7 +27892,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="904" spans="1:7" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" s="48" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="15">
         <v>1</v>
       </c>
@@ -27796,7 +27915,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="905" spans="1:7" s="51" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" s="48" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="15">
         <v>12</v>
       </c>
@@ -27819,7 +27938,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="906" spans="1:7" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="15">
         <v>3</v>
       </c>
@@ -27842,7 +27961,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="907" spans="1:7" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="15">
         <v>3</v>
       </c>
@@ -27865,7 +27984,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="908" spans="1:7" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="15">
         <v>1</v>
       </c>
@@ -27888,7 +28007,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="909" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A909" s="23">
         <v>1</v>
       </c>
@@ -27911,7 +28030,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="910" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A910" s="23">
         <v>1</v>
       </c>
@@ -27934,7 +28053,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="911" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A911" s="23">
         <v>1</v>
       </c>
@@ -27957,7 +28076,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="912" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="23">
         <v>1</v>
       </c>
@@ -27980,7 +28099,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="913" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A913" s="23">
         <v>2</v>
       </c>
@@ -28003,7 +28122,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="914" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="12">
         <v>1</v>
       </c>
@@ -28026,7 +28145,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="915" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A915" s="12">
         <v>1</v>
       </c>
@@ -28049,7 +28168,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="916" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A916" s="12">
         <v>1</v>
       </c>
@@ -28072,7 +28191,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="917" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A917" s="12">
         <v>1</v>
       </c>
@@ -28095,7 +28214,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="918" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="12">
         <v>4</v>
       </c>
@@ -28118,7 +28237,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="919" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="12">
         <v>1</v>
       </c>
@@ -28141,7 +28260,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="920" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A920" s="12">
         <v>2</v>
       </c>
@@ -28171,14 +28290,14 @@
       <c r="F921" s="35"/>
     </row>
     <row r="922" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A922" s="56" t="s">
+      <c r="A922" s="70" t="s">
         <v>1285</v>
       </c>
-      <c r="B922" s="57"/>
-      <c r="C922" s="57"/>
-      <c r="D922" s="57"/>
-      <c r="E922" s="57"/>
-      <c r="F922" s="57"/>
+      <c r="B922" s="72"/>
+      <c r="C922" s="72"/>
+      <c r="D922" s="72"/>
+      <c r="E922" s="72"/>
+      <c r="F922" s="72"/>
     </row>
     <row r="923" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="29">
@@ -28233,14 +28352,14 @@
       <c r="F925" s="35"/>
     </row>
     <row r="926" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="56" t="s">
+      <c r="A926" s="70" t="s">
         <v>1289</v>
       </c>
-      <c r="B926" s="57"/>
-      <c r="C926" s="57"/>
-      <c r="D926" s="57"/>
-      <c r="E926" s="57"/>
-      <c r="F926" s="57"/>
+      <c r="B926" s="72"/>
+      <c r="C926" s="72"/>
+      <c r="D926" s="72"/>
+      <c r="E926" s="72"/>
+      <c r="F926" s="72"/>
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" s="12">
@@ -28387,14 +28506,14 @@
       <c r="F933" s="35"/>
     </row>
     <row r="934" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A934" s="56" t="s">
+      <c r="A934" s="70" t="s">
         <v>1301</v>
       </c>
-      <c r="B934" s="57"/>
-      <c r="C934" s="57"/>
-      <c r="D934" s="57"/>
-      <c r="E934" s="57"/>
-      <c r="F934" s="57"/>
+      <c r="B934" s="72"/>
+      <c r="C934" s="72"/>
+      <c r="D934" s="72"/>
+      <c r="E934" s="72"/>
+      <c r="F934" s="72"/>
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" s="15">
@@ -28495,14 +28614,14 @@
       <c r="F939" s="35"/>
     </row>
     <row r="940" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="56" t="s">
+      <c r="A940" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B940" s="57"/>
-      <c r="C940" s="57"/>
-      <c r="D940" s="57"/>
-      <c r="E940" s="57"/>
-      <c r="F940" s="57"/>
+      <c r="B940" s="72"/>
+      <c r="C940" s="72"/>
+      <c r="D940" s="72"/>
+      <c r="E940" s="72"/>
+      <c r="F940" s="72"/>
     </row>
     <row r="941" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="12">
@@ -28993,17 +29112,17 @@
       <c r="E962" s="34"/>
       <c r="F962" s="35"/>
     </row>
-    <row r="963" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A963" s="56" t="s">
+    <row r="963" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="70" t="s">
         <v>632</v>
       </c>
-      <c r="B963" s="57"/>
-      <c r="C963" s="57"/>
-      <c r="D963" s="57"/>
-      <c r="E963" s="57"/>
-      <c r="F963" s="57"/>
-    </row>
-    <row r="964" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B963" s="72"/>
+      <c r="C963" s="72"/>
+      <c r="D963" s="72"/>
+      <c r="E963" s="72"/>
+      <c r="F963" s="72"/>
+    </row>
+    <row r="964" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="15">
         <v>1</v>
       </c>
@@ -29026,7 +29145,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="965" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="15">
         <v>1</v>
       </c>
@@ -29049,7 +29168,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="966" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="15">
         <v>1</v>
       </c>
@@ -29072,7 +29191,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="967" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="12">
         <v>1</v>
       </c>
@@ -29095,7 +29214,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="968" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="12">
         <v>1</v>
       </c>
@@ -29118,7 +29237,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="969" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="15">
         <v>1</v>
       </c>
@@ -29148,14 +29267,14 @@
       <c r="F970" s="35"/>
     </row>
     <row r="971" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A971" s="56" t="s">
+      <c r="A971" s="70" t="s">
         <v>674</v>
       </c>
-      <c r="B971" s="57"/>
-      <c r="C971" s="57"/>
-      <c r="D971" s="57"/>
-      <c r="E971" s="57"/>
-      <c r="F971" s="57"/>
+      <c r="B971" s="72"/>
+      <c r="C971" s="72"/>
+      <c r="D971" s="72"/>
+      <c r="E971" s="72"/>
+      <c r="F971" s="72"/>
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" s="12">
@@ -30008,23 +30127,23 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:7" s="48" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="7"/>
-      <c r="B1009" s="68"/>
-      <c r="C1009" s="68"/>
-      <c r="D1009" s="68"/>
-      <c r="E1009" s="68"/>
-      <c r="F1009" s="68"/>
+      <c r="B1009" s="53"/>
+      <c r="C1009" s="53"/>
+      <c r="D1009" s="53"/>
+      <c r="E1009" s="53"/>
+      <c r="F1009" s="53"/>
     </row>
     <row r="1010" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1010" s="56" t="s">
+      <c r="A1010" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="B1010" s="57"/>
-      <c r="C1010" s="57"/>
-      <c r="D1010" s="57"/>
-      <c r="E1010" s="57"/>
-      <c r="F1010" s="57"/>
+      <c r="B1010" s="72"/>
+      <c r="C1010" s="72"/>
+      <c r="D1010" s="72"/>
+      <c r="E1010" s="72"/>
+      <c r="F1010" s="72"/>
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" s="15">
@@ -30141,7 +30260,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="15">
         <v>1</v>
       </c>
@@ -30164,7 +30283,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="15">
         <v>1</v>
       </c>
@@ -30303,14 +30422,14 @@
       </c>
     </row>
     <row r="1024" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1024" s="56" t="s">
+      <c r="A1024" s="70" t="s">
         <v>1310</v>
       </c>
-      <c r="B1024" s="57"/>
-      <c r="C1024" s="57"/>
-      <c r="D1024" s="57"/>
-      <c r="E1024" s="57"/>
-      <c r="F1024" s="57"/>
+      <c r="B1024" s="72"/>
+      <c r="C1024" s="72"/>
+      <c r="D1024" s="72"/>
+      <c r="E1024" s="72"/>
+      <c r="F1024" s="72"/>
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1025" s="12">
@@ -30359,14 +30478,14 @@
       </c>
     </row>
     <row r="1028" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1028" s="56" t="s">
+      <c r="A1028" s="70" t="s">
         <v>1314</v>
       </c>
-      <c r="B1028" s="57"/>
-      <c r="C1028" s="57"/>
-      <c r="D1028" s="57"/>
-      <c r="E1028" s="57"/>
-      <c r="F1028" s="57"/>
+      <c r="B1028" s="72"/>
+      <c r="C1028" s="72"/>
+      <c r="D1028" s="72"/>
+      <c r="E1028" s="72"/>
+      <c r="F1028" s="72"/>
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" s="12">
@@ -30438,189 +30557,189 @@
       </c>
     </row>
     <row r="1032" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1032" s="58"/>
-      <c r="B1032" s="59"/>
-      <c r="C1032" s="59"/>
-      <c r="D1032" s="60"/>
-      <c r="E1032" s="59"/>
-      <c r="F1032" s="59"/>
+      <c r="A1032" s="54"/>
+      <c r="B1032" s="55"/>
+      <c r="C1032" s="55"/>
+      <c r="D1032" s="56"/>
+      <c r="E1032" s="55"/>
+      <c r="F1032" s="55"/>
     </row>
     <row r="1088" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1088" s="58"/>
-      <c r="B1088" s="59"/>
-      <c r="C1088" s="59"/>
-      <c r="D1088" s="60"/>
-      <c r="E1088" s="59"/>
-      <c r="F1088" s="59"/>
+      <c r="A1088" s="54"/>
+      <c r="B1088" s="55"/>
+      <c r="C1088" s="55"/>
+      <c r="D1088" s="56"/>
+      <c r="E1088" s="55"/>
+      <c r="F1088" s="55"/>
     </row>
     <row r="1089" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1089" s="58"/>
-      <c r="B1089" s="59"/>
-      <c r="C1089" s="59"/>
-      <c r="D1089" s="60"/>
-      <c r="E1089" s="59"/>
-      <c r="F1089" s="59"/>
+      <c r="A1089" s="54"/>
+      <c r="B1089" s="55"/>
+      <c r="C1089" s="55"/>
+      <c r="D1089" s="56"/>
+      <c r="E1089" s="55"/>
+      <c r="F1089" s="55"/>
     </row>
     <row r="1112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1112" s="58"/>
-      <c r="B1112" s="59"/>
-      <c r="C1112" s="59"/>
-      <c r="D1112" s="60"/>
-      <c r="E1112" s="59"/>
-      <c r="F1112" s="59"/>
+      <c r="A1112" s="54"/>
+      <c r="B1112" s="55"/>
+      <c r="C1112" s="55"/>
+      <c r="D1112" s="56"/>
+      <c r="E1112" s="55"/>
+      <c r="F1112" s="55"/>
     </row>
     <row r="1113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1113" s="58"/>
-      <c r="B1113" s="59"/>
-      <c r="C1113" s="59"/>
-      <c r="D1113" s="60"/>
-      <c r="E1113" s="59"/>
-      <c r="F1113" s="59"/>
+      <c r="A1113" s="54"/>
+      <c r="B1113" s="55"/>
+      <c r="C1113" s="55"/>
+      <c r="D1113" s="56"/>
+      <c r="E1113" s="55"/>
+      <c r="F1113" s="55"/>
     </row>
     <row r="1114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1114" s="58"/>
-      <c r="B1114" s="59"/>
-      <c r="C1114" s="59"/>
-      <c r="D1114" s="60"/>
-      <c r="E1114" s="59"/>
-      <c r="F1114" s="59"/>
+      <c r="A1114" s="54"/>
+      <c r="B1114" s="55"/>
+      <c r="C1114" s="55"/>
+      <c r="D1114" s="56"/>
+      <c r="E1114" s="55"/>
+      <c r="F1114" s="55"/>
     </row>
     <row r="1209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1209" s="58"/>
-      <c r="B1209" s="59"/>
-      <c r="C1209" s="59"/>
-      <c r="D1209" s="60"/>
-      <c r="E1209" s="59"/>
-      <c r="F1209" s="59"/>
+      <c r="A1209" s="54"/>
+      <c r="B1209" s="55"/>
+      <c r="C1209" s="55"/>
+      <c r="D1209" s="56"/>
+      <c r="E1209" s="55"/>
+      <c r="F1209" s="55"/>
     </row>
     <row r="1250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1250" s="58"/>
-      <c r="B1250" s="59"/>
-      <c r="C1250" s="59"/>
-      <c r="D1250" s="60"/>
-      <c r="E1250" s="59"/>
-      <c r="F1250" s="59"/>
+      <c r="A1250" s="54"/>
+      <c r="B1250" s="55"/>
+      <c r="C1250" s="55"/>
+      <c r="D1250" s="56"/>
+      <c r="E1250" s="55"/>
+      <c r="F1250" s="55"/>
     </row>
     <row r="1265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1265" s="58"/>
-      <c r="B1265" s="59"/>
-      <c r="C1265" s="59"/>
-      <c r="D1265" s="60"/>
-      <c r="E1265" s="59"/>
-      <c r="F1265" s="59"/>
+      <c r="A1265" s="54"/>
+      <c r="B1265" s="55"/>
+      <c r="C1265" s="55"/>
+      <c r="D1265" s="56"/>
+      <c r="E1265" s="55"/>
+      <c r="F1265" s="55"/>
     </row>
     <row r="1266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1266" s="58"/>
-      <c r="B1266" s="59"/>
-      <c r="C1266" s="59"/>
-      <c r="D1266" s="60"/>
-      <c r="E1266" s="59"/>
-      <c r="F1266" s="59"/>
+      <c r="A1266" s="54"/>
+      <c r="B1266" s="55"/>
+      <c r="C1266" s="55"/>
+      <c r="D1266" s="56"/>
+      <c r="E1266" s="55"/>
+      <c r="F1266" s="55"/>
     </row>
     <row r="1303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1303" s="58"/>
-      <c r="B1303" s="59"/>
-      <c r="C1303" s="59"/>
-      <c r="D1303" s="60"/>
-      <c r="E1303" s="59"/>
-      <c r="F1303" s="59"/>
+      <c r="A1303" s="54"/>
+      <c r="B1303" s="55"/>
+      <c r="C1303" s="55"/>
+      <c r="D1303" s="56"/>
+      <c r="E1303" s="55"/>
+      <c r="F1303" s="55"/>
     </row>
     <row r="1318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1318" s="58"/>
-      <c r="B1318" s="59"/>
-      <c r="C1318" s="59"/>
-      <c r="D1318" s="60"/>
-      <c r="E1318" s="59"/>
-      <c r="F1318" s="59"/>
+      <c r="A1318" s="54"/>
+      <c r="B1318" s="55"/>
+      <c r="C1318" s="55"/>
+      <c r="D1318" s="56"/>
+      <c r="E1318" s="55"/>
+      <c r="F1318" s="55"/>
     </row>
     <row r="1319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1319" s="58"/>
-      <c r="B1319" s="59"/>
-      <c r="C1319" s="59"/>
-      <c r="D1319" s="60"/>
-      <c r="E1319" s="59"/>
-      <c r="F1319" s="59"/>
+      <c r="A1319" s="54"/>
+      <c r="B1319" s="55"/>
+      <c r="C1319" s="55"/>
+      <c r="D1319" s="56"/>
+      <c r="E1319" s="55"/>
+      <c r="F1319" s="55"/>
     </row>
     <row r="1320" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1320" s="58"/>
-      <c r="B1320" s="59"/>
-      <c r="C1320" s="59"/>
-      <c r="D1320" s="60"/>
-      <c r="E1320" s="59"/>
-      <c r="F1320" s="59"/>
+      <c r="A1320" s="54"/>
+      <c r="B1320" s="55"/>
+      <c r="C1320" s="55"/>
+      <c r="D1320" s="56"/>
+      <c r="E1320" s="55"/>
+      <c r="F1320" s="55"/>
     </row>
     <row r="1337" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1337" s="58"/>
-      <c r="B1337" s="59"/>
-      <c r="C1337" s="59"/>
-      <c r="D1337" s="60"/>
-      <c r="E1337" s="59"/>
-      <c r="F1337" s="59"/>
+      <c r="A1337" s="54"/>
+      <c r="B1337" s="55"/>
+      <c r="C1337" s="55"/>
+      <c r="D1337" s="56"/>
+      <c r="E1337" s="55"/>
+      <c r="F1337" s="55"/>
     </row>
     <row r="1367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1367" s="58"/>
-      <c r="B1367" s="59"/>
-      <c r="C1367" s="59"/>
-      <c r="D1367" s="60"/>
-      <c r="E1367" s="59"/>
-      <c r="F1367" s="59"/>
+      <c r="A1367" s="54"/>
+      <c r="B1367" s="55"/>
+      <c r="C1367" s="55"/>
+      <c r="D1367" s="56"/>
+      <c r="E1367" s="55"/>
+      <c r="F1367" s="55"/>
     </row>
     <row r="1371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1371" s="58"/>
-      <c r="B1371" s="59"/>
-      <c r="C1371" s="59"/>
-      <c r="D1371" s="60"/>
-      <c r="E1371" s="59"/>
-      <c r="F1371" s="59"/>
+      <c r="A1371" s="54"/>
+      <c r="B1371" s="55"/>
+      <c r="C1371" s="55"/>
+      <c r="D1371" s="56"/>
+      <c r="E1371" s="55"/>
+      <c r="F1371" s="55"/>
     </row>
     <row r="1372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1372" s="58"/>
-      <c r="B1372" s="59"/>
-      <c r="C1372" s="59"/>
-      <c r="D1372" s="60"/>
-      <c r="E1372" s="59"/>
-      <c r="F1372" s="59"/>
+      <c r="A1372" s="54"/>
+      <c r="B1372" s="55"/>
+      <c r="C1372" s="55"/>
+      <c r="D1372" s="56"/>
+      <c r="E1372" s="55"/>
+      <c r="F1372" s="55"/>
     </row>
     <row r="1497" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1497" s="58"/>
-      <c r="B1497" s="59"/>
-      <c r="C1497" s="59"/>
-      <c r="D1497" s="60"/>
-      <c r="E1497" s="59"/>
-      <c r="F1497" s="59"/>
+      <c r="A1497" s="54"/>
+      <c r="B1497" s="55"/>
+      <c r="C1497" s="55"/>
+      <c r="D1497" s="56"/>
+      <c r="E1497" s="55"/>
+      <c r="F1497" s="55"/>
     </row>
     <row r="1502" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1502" s="58"/>
-      <c r="B1502" s="59"/>
-      <c r="C1502" s="59"/>
-      <c r="D1502" s="60"/>
-      <c r="E1502" s="59"/>
-      <c r="F1502" s="59"/>
+      <c r="A1502" s="54"/>
+      <c r="B1502" s="55"/>
+      <c r="C1502" s="55"/>
+      <c r="D1502" s="56"/>
+      <c r="E1502" s="55"/>
+      <c r="F1502" s="55"/>
     </row>
     <row r="1503" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1503" s="58"/>
-      <c r="B1503" s="59"/>
-      <c r="C1503" s="59"/>
-      <c r="D1503" s="60"/>
-      <c r="E1503" s="59"/>
-      <c r="F1503" s="59"/>
+      <c r="A1503" s="54"/>
+      <c r="B1503" s="55"/>
+      <c r="C1503" s="55"/>
+      <c r="D1503" s="56"/>
+      <c r="E1503" s="55"/>
+      <c r="F1503" s="55"/>
     </row>
     <row r="1534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1534" s="34"/>
       <c r="C1534" s="34"/>
-      <c r="D1534" s="73"/>
+      <c r="D1534" s="65"/>
     </row>
     <row r="1608" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1608" s="34"/>
       <c r="C1608" s="34"/>
-      <c r="D1608" s="73"/>
+      <c r="D1608" s="65"/>
     </row>
     <row r="1614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1614" s="34"/>
       <c r="C1614" s="34"/>
-      <c r="D1614" s="73"/>
-    </row>
-    <row r="1709" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1614" s="65"/>
+    </row>
+    <row r="1709" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1709" s="1"/>
       <c r="B1709" s="2"/>
       <c r="C1709" s="2"/>
@@ -30637,6 +30756,22 @@
     <sortCondition ref="C308:C323"/>
   </sortState>
   <mergeCells count="32">
+    <mergeCell ref="A332:F332"/>
+    <mergeCell ref="A821:F821"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="A582:F582"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A611:F611"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="A227:F227"/>
+    <mergeCell ref="A270:F270"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A98:F98"/>
     <mergeCell ref="A307:F307"/>
     <mergeCell ref="A1024:F1024"/>
     <mergeCell ref="A1028:F1028"/>
@@ -30653,22 +30788,6 @@
     <mergeCell ref="A926:F926"/>
     <mergeCell ref="A934:F934"/>
     <mergeCell ref="A709:F709"/>
-    <mergeCell ref="A332:F332"/>
-    <mergeCell ref="A821:F821"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A582:F582"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A611:F611"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A193:F193"/>
-    <mergeCell ref="A227:F227"/>
-    <mergeCell ref="A270:F270"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A98:F98"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
